--- a/Data/EC/NIT-9001067206.xlsx
+++ b/Data/EC/NIT-9001067206.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E355C812-84D7-43F4-9376-7E1FAF5778D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{775F37B9-514B-43D9-87B8-1CC8BF3F7176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B010967-815B-4268-8C56-119A56BE2F0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2BB34F3B-15B8-41A2-B94D-B848D8E175EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,181 +71,181 @@
     <t>LEDIS MABEL MARIA VERGARA ALVAREZ</t>
   </si>
   <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
     <t>1143374662</t>
   </si>
   <si>
     <t>CARLOS IVAN RUA SERRANO</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -659,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079F7C9D-1E57-A763-5802-43B464CB989F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F708BB23-BF61-1E96-3ACD-0D5DADB6E337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD5551-A0B0-4696-B614-648F57382A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B073BE7-DD6E-47E0-A805-4FBB667AE5D2}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>39866</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1570,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F33" s="18">
-        <v>36000</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>900000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1691,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1714,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1783,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1829,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1852,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1875,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1921,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1944,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1967,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1990,7 +1990,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -2013,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -2036,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -2059,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -2082,7 +2082,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2105,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2128,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2151,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2220,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
@@ -2243,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2266,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
@@ -2289,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2358,7 +2358,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2381,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
@@ -2404,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
@@ -2427,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2450,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2473,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
@@ -2490,19 +2490,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F73" s="24">
-        <v>39866</v>
+        <v>36000</v>
       </c>
       <c r="G73" s="24">
-        <v>1300000</v>
+        <v>900000</v>
       </c>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>

--- a/Data/EC/NIT-9001067206.xlsx
+++ b/Data/EC/NIT-9001067206.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{775F37B9-514B-43D9-87B8-1CC8BF3F7176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B28F4B5-DA7A-454F-AE0E-C878F26D5B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2BB34F3B-15B8-41A2-B94D-B848D8E175EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C042C2E6-7259-410F-B6C7-D251A26081F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,181 +71,181 @@
     <t>LEDIS MABEL MARIA VERGARA ALVAREZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1143374662</t>
+  </si>
+  <si>
+    <t>CARLOS IVAN RUA SERRANO</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1143374662</t>
-  </si>
-  <si>
-    <t>CARLOS IVAN RUA SERRANO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -344,7 +344,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,9 +359,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,23 +559,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +603,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F708BB23-BF61-1E96-3ACD-0D5DADB6E337}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFB1B7B-A1F4-8120-5763-3B3D020CB3A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B073BE7-DD6E-47E0-A805-4FBB667AE5D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00987C9-ABD5-43AB-A49D-9F78328002B6}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>39866</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1570,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>900000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1691,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1714,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1783,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1829,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1852,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1875,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1921,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1944,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1967,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1990,7 +1990,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -2013,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -2036,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -2059,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -2082,7 +2082,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2105,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2128,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2151,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2220,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
@@ -2243,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2266,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
@@ -2289,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2358,7 +2358,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2381,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
@@ -2404,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
@@ -2427,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2450,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2473,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
@@ -2490,19 +2490,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D73" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="F73" s="24">
-        <v>36000</v>
+        <v>39866</v>
       </c>
       <c r="G73" s="24">
-        <v>900000</v>
+        <v>1300000</v>
       </c>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
